--- a/docs/assets/disciplinas/LOQ4087.xlsx
+++ b/docs/assets/disciplinas/LOQ4087.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Gerais Levar os estudantes a compreenderem que a Termodinâmica, juntamente com fenomenos de transporte constituem-se na base fundamental para o entendimento e solução de grande parte dos problemas de Eng. Química. 2) Específicos Ao final do curso os estudantes deverão: - Compreender os aspectos mássicos, energéticos e entrópicos, envolvendo sistemas termodinâmicos abertos e fechados; - Dominar e ser capaz de fazer predições de propriedades termodinâmicas, usando equações cúbicas de estado e relações termodinâmicas; - Desenvolver uma metodologia para poder solucionar os problemas de engenharia, nos aspectos termodinâmicos; Dominar o uso de tabelas de propriedades termodinâmicas;</t>
+    <t>8554681 - Pedro Felipe Arce Castillo</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8554681 - Pedro Felipe Arce Castillo</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Conceitos e definições básicas. Propriedades de substâncias puras. Primeira lei da termodinâmica. Entropia e segunda lei da termodinâmica. Termodinâmica de processos de escoamento. Produção de potência a partir de calor. Refrigeração e liquefação.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1 - Conceitos e definições básicas.1.1-Termodinâmica.1.2-Sistema termodinâmico.1.3-Substância pura, Estado, Fase.1.4-Função de estado, função caminho.1.5-Propriedades termodinâmicas: Pressão, Temperatura, Volume.1.6-Equilíbrio termodinâmico.1.7-Processos termodinâmicos.1.8-Processos reversíveis e irreversíveis.1.9-Ciclos termodinâmicos: Ciclo de potência a vapor e Ciclo de refrigeração.1.10-Calor e Trabalho.1.11-Balanço de uma propriedade termodinâmica.2 - Propriedades de substâncias puras.2.1- Substância pura. Diagrama PTv2.2-Pressão de vapor/Pressão de saturação2.3-Ponto crítico e Ponto triplo2.4-Critérios para determinar os estados termodinâmicos nas regiões de saturação, líquido comprimido e vapor superaquecido utilizando tabelas de propriedades termodinâmicas.2.5-Diagramas termodinâmicos vs Tabelas termodinâmicas2.6-Equação de estado para fluido puro2.7-Exercícios.3 - Primeira lei da termodinâmica.3.1-Definição. Conservação da energia3.2-Balanço de massa e a equação da continuidade3.3-Energia: energia interna, potencial e cinética3.4-Equação geral da primeira Lei da termodinâmica: Balanço de energia3.5-Propriedades termodinâmicas: energia interna e entalpia nas regiões de saturação, líquido comprimido e vapor superaquecido.3.6-Calor específico a volume e pressão constante3.7-Grandezas: Calor e Trabalho. Convenção de sinais.3.8-Exercícios.4 - Entropia e segunda lei da termodinâmica.4.1-Definição. Geração de entropia4.2-Primeira lei versus Segunda lei da termodinâmica4.3-Análise da segunda lei da termodinâmica4.4-Máquinas térmicas de potência. Eficiência4.5-Enunciados da segunda lei da termodinâmica: Kelvin-Planck e Clausius.4.6-Processos reversíveis e irreversíveis4.7-Irreversibilidades.4.8-Quantificação da entropia: Desigualdade de Clausius4.9-Propriedade termodinâmica: entropia nas regiões de saturação, líquido comprimido e vapor superaquecido.4.9-Entropia gerada4.10-Equação geral da segunda Lei da termodinâmica: Balanço de entropia.4.11-Eficiência de uma máquina térmica.4.12-Processos e eficiência isentrópica: Turbina, compressor, bomba4.13-Exercícios.5 - Termodinâmica de processos de escoamento.5.1-Escoamento de fluidos. Balanço de energia mecânica. Equação de Bernoulli5.2-Expansão de fluidos: turbinas e válvulas de expansão.5.3-Compressão de fluidos: compressores e bombas.5.4-Troca de calor: Trocadores de calor.5.5-Aumento da energia cinética: bocal5.6-Exercícios.6 - Produção de potência a partir de calor.6.1-Ciclos de potência a vapor.6.2-Ciclo Carnot.6.3-Ciclo Rankine: ideal e real. Eficiência6.4-Tipos de Ciclos Rankine: com Reaquecimento e Regenerativo.6.5-Exercícios.6.6-Ciclo Brayton: ideal e real. Eficiência6.7-Ciclo combinado: Brayton-Rankine.6.8-Exercícios.7 - Refrigeração e liquefação.7.1-Ciclo de refrigeração por compressão de vapor: ideal e real.7.2-Configurações dos ciclos de refrigeração: em dois estágios e cascata.7.3-Fluidos de trabalho utilizados.7.4-Aplicações domésticas e na engenharia.7.5-Liquefação de gases.7.6-Exercícios.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,30 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>2 provas escritas</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão avaliados os conteúdos discutidos em sala e constantes da ementa do curso. A média da disciplina será a média aritmética das duas provas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>prova escrita com conteúdo de todo o semestre</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>KORETSKY, M. D. Termodinâmica para Engenharia Química. 1 ed. LTC Editora, 2007. 
-MORAN, M. J.; SHAPIRO, H. N. Princípios de Termodinâmica para Engenharia. 1 ed. LTC Editora, 2009. 
-SANDLER, S. I., Chemical and Engineering Thermodynamics, 3rd ed., John Wiley &amp; Sons, 1999 
-SMITH, J.M.; VAN NESS, H.C.; Abott, M. M. Introdução à Termodinâmica da Engenharia Química. 7ª ed. LTC editora, 2007. 
-TERRON, L. R. Termodinâmica Química Aplicada. 1 ed. Editora Manole Ltda, 2009. 
-VAN WILEN, J. Sonntag, Richard. E. Fundamentos da Termodinâmica Clássica. 6 ed. 2004</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -509,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,34 +626,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -681,93 +670,82 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4087.xlsx
+++ b/docs/assets/disciplinas/LOQ4087.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Gerais Levar os estudantes a compreenderem que a Termodinâmica, juntamente com fenomenos de transporte constituem-se na base fundamental para o entendimento e solução de grande parte dos problemas de Eng. Química. 2) Específicos Ao final do curso os estudantes deverão: - Compreender os aspectos mássicos, energéticos e entrópicos, envolvendo sistemas termodinâmicos abertos e fechados; - Dominar e ser capaz de fazer predições de propriedades termodinâmicas, usando equações cúbicas de estado e relações termodinâmicas; - Desenvolver uma metodologia para poder solucionar os problemas de engenharia, nos aspectos termodinâmicos; Dominar o uso de tabelas de propriedades termodinâmicas;</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>General objectiveStudents will be led to understand that thermodynamics, together with transport phenomena, are the fundamental basis for understanding and solving most of the problems of Chemical Engineering.Specific objectivesAt the end of the course, students will understand the mass, energetic and entropic aspects, involving open and closed thermodynamic systems, to master and being able to make predictions of properties using cubic equations of state and thermodynamic relations, to develop a methodology for solving engineering problems in thermodynamic aspects, to master the use of tables of thermodynamic properties.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>8554681 - Pedro Felipe Arce Castillo</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>General objectiveStudents will be led to understand that thermodynamics, together with transport phenomena, are the fundamental basis for understanding and solving most of the problems of Chemical Engineering.Specific objectivesAt the end of the course, students will understand the mass, energetic and entropic aspects, involving open and closed thermodynamic systems, to master and being able to make predictions of properties using cubic equations of state and thermodynamic relations, to develop a methodology for solving engineering problems in thermodynamic aspects, to master the use of tables of thermodynamic properties.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Conceitos e definições básicas. Propriedades de substâncias puras. Primeira lei da termodinâmica. Entropia e segunda lei da termodinâmica. Termodinâmica de processos de escoamento. Produção de potência a partir de calor. Refrigeração e liquefação.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1 - Conceitos e definições básicas.1.1-Termodinâmica.1.2-Sistema termodinâmico.1.3-Substância pura, Estado, Fase.1.4-Função de estado, função caminho.1.5-Propriedades termodinâmicas: Pressão, Temperatura, Volume.1.6-Equilíbrio termodinâmico.1.7-Processos termodinâmicos.1.8-Processos reversíveis e irreversíveis.1.9-Ciclos termodinâmicos: Ciclo de potência a vapor e Ciclo de refrigeração.1.10-Calor e Trabalho.1.11-Balanço de uma propriedade termodinâmica.2 - Propriedades de substâncias puras.2.1- Substância pura. Diagrama PTv2.2-Pressão de vapor/Pressão de saturação2.3-Ponto crítico e Ponto triplo2.4-Critérios para determinar os estados termodinâmicos nas regiões de saturação, líquido comprimido e vapor superaquecido utilizando tabelas de propriedades termodinâmicas.2.5-Diagramas termodinâmicos vs Tabelas termodinâmicas2.6-Equação de estado para fluido puro2.7-Exercícios.3 - Primeira lei da termodinâmica.3.1-Definição. Conservação da energia3.2-Balanço de massa e a equação da continuidade3.3-Energia: energia interna, potencial e cinética3.4-Equação geral da primeira Lei da termodinâmica: Balanço de energia3.5-Propriedades termodinâmicas: energia interna e entalpia nas regiões de saturação, líquido comprimido e vapor superaquecido.3.6-Calor específico a volume e pressão constante3.7-Grandezas: Calor e Trabalho. Convenção de sinais.3.8-Exercícios.4 - Entropia e segunda lei da termodinâmica.4.1-Definição. Geração de entropia4.2-Primeira lei versus Segunda lei da termodinâmica4.3-Análise da segunda lei da termodinâmica4.4-Máquinas térmicas de potência. Eficiência4.5-Enunciados da segunda lei da termodinâmica: Kelvin-Planck e Clausius.4.6-Processos reversíveis e irreversíveis4.7-Irreversibilidades.4.8-Quantificação da entropia: Desigualdade de Clausius4.9-Propriedade termodinâmica: entropia nas regiões de saturação, líquido comprimido e vapor superaquecido.4.9-Entropia gerada4.10-Equação geral da segunda Lei da termodinâmica: Balanço de entropia.4.11-Eficiência de uma máquina térmica.4.12-Processos e eficiência isentrópica: Turbina, compressor, bomba4.13-Exercícios.5 - Termodinâmica de processos de escoamento.5.1-Escoamento de fluidos. Balanço de energia mecânica. Equação de Bernoulli5.2-Expansão de fluidos: turbinas e válvulas de expansão.5.3-Compressão de fluidos: compressores e bombas.5.4-Troca de calor: Trocadores de calor.5.5-Aumento da energia cinética: bocal5.6-Exercícios.6 - Produção de potência a partir de calor.6.1-Ciclos de potência a vapor.6.2-Ciclo Carnot.6.3-Ciclo Rankine: ideal e real. Eficiência6.4-Tipos de Ciclos Rankine: com Reaquecimento e Regenerativo.6.5-Exercícios.6.6-Ciclo Brayton: ideal e real. Eficiência6.7-Ciclo combinado: Brayton-Rankine.6.8-Exercícios.7 - Refrigeração e liquefação.7.1-Ciclo de refrigeração por compressão de vapor: ideal e real.7.2-Configurações dos ciclos de refrigeração: em dois estágios e cascata.7.3-Fluidos de trabalho utilizados.7.4-Aplicações domésticas e na engenharia.7.5-Liquefação de gases.7.6-Exercícios.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,30 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>2 provas escritas</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>2 provas escritas</t>
+    <t>Serão avaliados os conteúdos discutidos em sala e constantes da ementa do curso. A média da disciplina será a média aritmética das duas provas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão avaliados os conteúdos discutidos em sala e constantes da ementa do curso. A média da disciplina será a média aritmética das duas provas.</t>
+    <t>prova escrita com conteúdo de todo o semestre</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>prova escrita com conteúdo de todo o semestre</t>
+    <t>KORETSKY, M. D. Termodinâmica para Engenharia Química. 1 ed. LTC Editora, 2007. 
+MORAN, M. J.; SHAPIRO, H. N. Princípios de Termodinâmica para Engenharia. 1 ed. LTC Editora, 2009. 
+SANDLER, S. I., Chemical and Engineering Thermodynamics, 3rd ed., John Wiley &amp; Sons, 1999 
+SMITH, J.M.; VAN NESS, H.C.; Abott, M. M. Introdução à Termodinâmica da Engenharia Química. 7ª ed. LTC editora, 2007. 
+TERRON, L. R. Termodinâmica Química Aplicada. 1 ed. Editora Manole Ltda, 2009. 
+VAN WILEN, J. Sonntag, Richard. E. Fundamentos da Termodinâmica Clássica. 6 ed. 2004</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -626,37 +640,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -670,82 +681,93 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
